--- a/NformTester/NformTester/Keywordscripts/600.20.30.30_ConfigureWriteFileAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.30_ConfigureWriteFileAction.xlsx
@@ -1204,7 +1204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7462" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7474" uniqueCount="854">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4103,7 +4103,105 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4940,10 +5038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5151,7 +5249,7 @@
         <v>756</v>
       </c>
       <c r="B7" s="19">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -7238,14 +7336,12 @@
         <v>300</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>303</v>
+        <v>95</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>848</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -7258,13 +7354,13 @@
         <v>88</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>300</v>
+        <v>791</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>2</v>
@@ -7282,13 +7378,13 @@
         <v>89</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>841</v>
+        <v>791</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>2</v>
@@ -7306,16 +7402,20 @@
         <v>90</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="F91" s="2">
-        <v>5</v>
-      </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>848</v>
+      </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -7334,7 +7434,7 @@
         <v>300</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>2</v>
@@ -7347,16 +7447,22 @@
       <c r="M92" s="2"/>
       <c r="N92" s="8"/>
     </row>
-    <row r="93" spans="3:14" ht="15">
+    <row r="93" spans="3:14">
       <c r="C93" s="2">
         <v>92</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
+      <c r="D93" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
@@ -7369,91 +7475,81 @@
       <c r="C94" s="2">
         <v>93</v>
       </c>
-      <c r="D94" s="10" t="s">
-        <v>831</v>
+      <c r="D94" s="6" t="s">
+        <v>786</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="F94" s="11">
-        <v>5</v>
-      </c>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="11"/>
-      <c r="N94" s="13"/>
+        <v>787</v>
+      </c>
+      <c r="F94" s="2">
+        <v>5</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="8"/>
     </row>
     <row r="95" spans="3:14">
       <c r="C95" s="2">
         <v>94</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="6" t="s">
         <v>789</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="11"/>
-      <c r="N95" s="13"/>
+        <v>300</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="8"/>
     </row>
-    <row r="96" spans="3:14">
+    <row r="96" spans="3:14" ht="15">
       <c r="C96" s="2">
         <v>95</v>
       </c>
-      <c r="D96" s="10" t="s">
-        <v>836</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
-      <c r="N96" s="13"/>
+      <c r="D96" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="8"/>
     </row>
     <row r="97" spans="3:14">
       <c r="C97" s="2">
         <v>96</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>830</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="F97" s="11">
+        <v>5</v>
+      </c>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
       <c r="I97" s="11"/>
       <c r="J97" s="11"/>
       <c r="K97" s="11"/>
@@ -7461,24 +7557,24 @@
       <c r="M97" s="11"/>
       <c r="N97" s="13"/>
     </row>
-    <row r="98" spans="3:14" ht="14.25">
+    <row r="98" spans="3:14">
       <c r="C98" s="2">
         <v>97</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>836</v>
+        <v>789</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>843</v>
+        <v>19</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="11"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
       <c r="J98" s="11"/>
       <c r="K98" s="11"/>
       <c r="L98" s="11"/>
@@ -7492,17 +7588,17 @@
       <c r="D99" s="10" t="s">
         <v>836</v>
       </c>
-      <c r="E99" s="11" t="s">
-        <v>575</v>
+      <c r="E99" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H99" s="4"/>
-      <c r="I99" s="11"/>
+      <c r="I99" s="4"/>
       <c r="J99" s="11"/>
       <c r="K99" s="11"/>
       <c r="L99" s="11"/>
@@ -7520,34 +7616,38 @@
         <v>843</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>95</v>
+        <v>570</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="I100" s="11"/>
       <c r="J100" s="11"/>
       <c r="K100" s="11"/>
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
       <c r="N100" s="13"/>
     </row>
-    <row r="101" spans="3:14">
+    <row r="101" spans="3:14" ht="14.25">
       <c r="C101" s="2">
         <v>100</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>786</v>
+        <v>836</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="F101" s="11">
-        <v>3</v>
-      </c>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
+        <v>843</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" s="15"/>
       <c r="I101" s="11"/>
       <c r="J101" s="11"/>
       <c r="K101" s="11"/>
@@ -7555,91 +7655,185 @@
       <c r="M101" s="11"/>
       <c r="N101" s="13"/>
     </row>
+    <row r="102" spans="3:14">
+      <c r="C102" s="2">
+        <v>101</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H102" s="4"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="13"/>
+    </row>
+    <row r="103" spans="3:14">
+      <c r="C103" s="2">
+        <v>102</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="13"/>
+    </row>
+    <row r="104" spans="3:14">
+      <c r="C104" s="2">
+        <v>103</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="F104" s="11">
+        <v>3</v>
+      </c>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N2:N46">
-    <cfRule type="cellIs" dxfId="17" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N5">
-    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N6">
-    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="17" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42:N81">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76:N81">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76:N81">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42:N53">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N54:N101">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N54:N104">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N89:N90">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N89:N90">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N89:N90">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D41 D7:D35 D43:D53 D70:D76 D62:D68 D87:D92 D78:D84 D95 D101 D55:D60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D41 D7:D35 D43:D53 D70:D76 D62:D68 D55:D60 D78:D84 D98 D104 D87:D95">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F59 F61:F73 F75:F101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F59 F61:F73 F75:F104">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G96 G98:G101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G101:G104 G2:G99">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E104">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.30_ConfigureWriteFileAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.30_ConfigureWriteFileAction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-900" yWindow="30" windowWidth="8625" windowHeight="7830"/>
@@ -1199,7 +1199,7 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -3689,148 +3689,147 @@
     <t>MultiSearch</t>
   </si>
   <si>
+    <t>$SNMP_SearchEnd$</t>
+  </si>
+  <si>
+    <t>;Create WriteFile Action</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expand</t>
+  </si>
+  <si>
+    <t>Devices_tree</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClickItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Information"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarms_table</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Undergoing Maintenance"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Clear up the alarms. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>All_alarms_table</t>
+  </si>
+  <si>
+    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Generate alarm to trigger the action</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devices</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Verify that:Actioin will be performed.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClickCell</t>
+  </si>
+  <si>
+    <t>FormAlarm_Details</t>
+  </si>
+  <si>
+    <t>ActionDetailsTable</t>
+  </si>
+  <si>
+    <t>FormConfirmActionSetDelete</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Delete devices</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormManaged_Devices</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Nform\\bin\\NformViewer.exe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"action-writefile"</t>
+  </si>
+  <si>
+    <t>"Write-file"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Write-file"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Map this WriteFile action.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Delete this WriteFile action.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>$SNMP_SearchStart$</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchEnd$</t>
-  </si>
-  <si>
-    <t>;Create WriteFile Action</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expand</t>
-  </si>
-  <si>
-    <t>Devices_tree</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClickItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Select</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Information"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alarms_table</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Undergoing Maintenance"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Clear up the alarms. </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>All_alarms_table</t>
-  </si>
-  <si>
-    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Generate alarm to trigger the action</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Devices</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Verify that:Actioin will be performed.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alarms</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClickCell</t>
-  </si>
-  <si>
-    <t>FormAlarm_Details</t>
-  </si>
-  <si>
-    <t>ActionDetailsTable</t>
-  </si>
-  <si>
-    <t>FormConfirmActionSetDelete</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Delete devices</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormManaged_Devices</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\\Nform\\bin\\NformViewer.exe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alex</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Running Range</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"action-writefile"</t>
-  </si>
-  <si>
-    <t>"Write-file"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Write-file"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Map this WriteFile action.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Delete this WriteFile action.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>$NAME_SearchStart_0$</t>
   </si>
 </sst>
 </file>
@@ -4098,68 +4097,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -4754,7 +4697,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5040,16 +4983,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="27.75" customWidth="1"/>
-    <col min="6" max="6" width="52.875" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>
     <col min="8" max="8" width="17.875" customWidth="1"/>
     <col min="9" max="9" width="16.875" customWidth="1"/>
@@ -5105,7 +5048,7 @@
         <v>750</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -5130,7 +5073,7 @@
         <v>751</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -5209,10 +5152,10 @@
         <v>815</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>816</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>817</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -5224,13 +5167,13 @@
         <v>755</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="2"/>
@@ -5277,7 +5220,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="17" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="2">
@@ -5416,7 +5359,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -5565,7 +5508,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="2"/>
@@ -6130,7 +6073,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>304</v>
@@ -6230,7 +6173,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
@@ -6308,7 +6251,7 @@
         <v>56</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
@@ -6355,7 +6298,7 @@
         <v>386</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -6376,16 +6319,16 @@
         <v>385</v>
       </c>
       <c r="F48" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="G48" s="11" t="s">
         <v>820</v>
       </c>
-      <c r="G48" s="11" t="s">
-        <v>821</v>
-      </c>
       <c r="H48" s="11">
         <v>2</v>
       </c>
-      <c r="I48" s="11" t="s">
-        <v>822</v>
+      <c r="I48" s="2" t="s">
+        <v>853</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
@@ -6407,10 +6350,10 @@
         <v>387</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
@@ -6430,13 +6373,13 @@
         <v>385</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>56</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
@@ -6522,7 +6465,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -6573,7 +6516,7 @@
         <v>27</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
@@ -6594,7 +6537,7 @@
         <v>19</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>2</v>
@@ -6618,13 +6561,13 @@
         <v>19</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -6684,7 +6627,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="11"/>
@@ -6732,7 +6675,7 @@
         <v>19</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>2</v>
@@ -6762,7 +6705,7 @@
         <v>56</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>822</v>
+        <v>853</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -6872,7 +6815,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="2"/>
@@ -6920,7 +6863,7 @@
         <v>19</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>2</v>
@@ -6944,10 +6887,10 @@
         <v>19</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H72" s="2">
         <v>1</v>
@@ -7015,16 +6958,16 @@
         <v>789</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>800</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="2"/>
@@ -7041,7 +6984,7 @@
         <v>789</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>95</v>
@@ -7062,7 +7005,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
@@ -7140,7 +7083,7 @@
         <v>56</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -7190,7 +7133,7 @@
         <v>56</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -7414,7 +7357,7 @@
         <v>56</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
@@ -7455,7 +7398,7 @@
         <v>789</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>194</v>
@@ -7522,7 +7465,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="2"/>
@@ -7540,10 +7483,10 @@
         <v>96</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F97" s="11">
         <v>5</v>
@@ -7586,7 +7529,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>19</v>
@@ -7610,10 +7553,10 @@
         <v>99</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F100" s="11" t="s">
         <v>570</v>
@@ -7622,7 +7565,7 @@
         <v>3</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="I100" s="11"/>
       <c r="J100" s="11"/>
@@ -7636,10 +7579,10 @@
         <v>100</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F101" s="11" t="s">
         <v>178</v>
@@ -7660,7 +7603,7 @@
         <v>101</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>575</v>
@@ -7684,10 +7627,10 @@
         <v>102</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F103" s="11" t="s">
         <v>95</v>
@@ -7711,7 +7654,7 @@
         <v>786</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F104" s="11">
         <v>3</v>
@@ -7728,98 +7671,98 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N2:N46">
-    <cfRule type="cellIs" dxfId="29" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="29" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="30" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N5">
-    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N6">
-    <cfRule type="cellIs" dxfId="25" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="cellIs" dxfId="23" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42:N81">
-    <cfRule type="cellIs" dxfId="21" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76:N81">
-    <cfRule type="cellIs" dxfId="19" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76:N81">
-    <cfRule type="cellIs" dxfId="17" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42:N53">
-    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54:N104">
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N89:N90">
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N89:N90">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N89:N90">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.30_ConfigureWriteFileAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.30_ConfigureWriteFileAction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-900" yWindow="30" windowWidth="8625" windowHeight="7830"/>
@@ -1199,7 +1199,7 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -3618,9 +3618,6 @@
     <t>"test-writefile"</t>
   </si>
   <si>
-    <t>"C:\Nform\result.dat"</t>
-  </si>
-  <si>
     <t>"99"</t>
   </si>
   <si>
@@ -3830,6 +3827,10 @@
   </si>
   <si>
     <t>$NAME_SearchStart_0$</t>
+  </si>
+  <si>
+    <t>"C:\result.dat"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4097,10 +4098,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -4697,7 +4698,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4983,8 +4984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5048,7 +5049,7 @@
         <v>750</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -5073,13 +5074,13 @@
         <v>751</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>0</v>
@@ -5089,13 +5090,13 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>812</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -5114,7 +5115,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -5145,17 +5146,17 @@
         <v>569</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>816</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -5167,13 +5168,13 @@
         <v>755</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="2"/>
@@ -5220,7 +5221,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="2">
@@ -5268,10 +5269,10 @@
         <v>7</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J9" s="2" t="b">
         <v>1</v>
@@ -5359,7 +5360,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -5508,7 +5509,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="2"/>
@@ -5570,7 +5571,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="2"/>
@@ -5632,7 +5633,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -5663,7 +5664,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -5746,7 +5747,7 @@
         <v>13</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="2"/>
@@ -5773,7 +5774,7 @@
         <v>13</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -5800,7 +5801,7 @@
         <v>13</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -5827,7 +5828,7 @@
         <v>13</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -5854,7 +5855,7 @@
         <v>13</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -5881,7 +5882,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -6033,7 +6034,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>795</v>
+        <v>853</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
@@ -6073,7 +6074,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>304</v>
@@ -6082,7 +6083,7 @@
         <v>309</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>794</v>
@@ -6173,7 +6174,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
@@ -6251,7 +6252,7 @@
         <v>56</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
@@ -6298,7 +6299,7 @@
         <v>386</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -6319,16 +6320,16 @@
         <v>385</v>
       </c>
       <c r="F48" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="G48" s="11" t="s">
         <v>819</v>
       </c>
-      <c r="G48" s="11" t="s">
-        <v>820</v>
-      </c>
       <c r="H48" s="11">
         <v>2</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
@@ -6350,10 +6351,10 @@
         <v>387</v>
       </c>
       <c r="G49" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="H49" s="11" t="s">
         <v>821</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>822</v>
       </c>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
@@ -6373,13 +6374,13 @@
         <v>385</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>56</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
@@ -6465,7 +6466,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -6516,7 +6517,7 @@
         <v>27</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
@@ -6537,7 +6538,7 @@
         <v>19</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>2</v>
@@ -6561,13 +6562,13 @@
         <v>19</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -6605,7 +6606,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>775</v>
@@ -6627,7 +6628,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="11"/>
@@ -6675,7 +6676,7 @@
         <v>19</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>2</v>
@@ -6705,7 +6706,7 @@
         <v>56</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -6815,7 +6816,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="2"/>
@@ -6863,7 +6864,7 @@
         <v>19</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>2</v>
@@ -6887,10 +6888,10 @@
         <v>19</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H72" s="2">
         <v>1</v>
@@ -6933,7 +6934,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>775</v>
@@ -6958,16 +6959,16 @@
         <v>789</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>838</v>
-      </c>
       <c r="G75" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="2"/>
@@ -6984,7 +6985,7 @@
         <v>789</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>95</v>
@@ -7005,7 +7006,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
@@ -7083,7 +7084,7 @@
         <v>56</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -7133,7 +7134,7 @@
         <v>56</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -7159,10 +7160,10 @@
         <v>7</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J83" s="2" t="b">
         <v>1</v>
@@ -7357,7 +7358,7 @@
         <v>56</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
@@ -7398,7 +7399,7 @@
         <v>789</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>194</v>
@@ -7465,7 +7466,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="2"/>
@@ -7483,10 +7484,10 @@
         <v>96</v>
       </c>
       <c r="D97" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>829</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>830</v>
       </c>
       <c r="F97" s="11">
         <v>5</v>
@@ -7529,7 +7530,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>19</v>
@@ -7553,10 +7554,10 @@
         <v>99</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F100" s="11" t="s">
         <v>570</v>
@@ -7565,7 +7566,7 @@
         <v>3</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I100" s="11"/>
       <c r="J100" s="11"/>
@@ -7579,10 +7580,10 @@
         <v>100</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F101" s="11" t="s">
         <v>178</v>
@@ -7603,7 +7604,7 @@
         <v>101</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>575</v>
@@ -7627,10 +7628,10 @@
         <v>102</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F103" s="11" t="s">
         <v>95</v>
@@ -7654,7 +7655,7 @@
         <v>786</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F104" s="11">
         <v>3</v>
